--- a/po_analysis_by_asin/B0D2JDP1VK_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2JDP1VK_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>80</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>100</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>200</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>20</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>20</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>80</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>180</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>40</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>140</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>20</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>40</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>20</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>40</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>20</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>120</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>240</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>240</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>280</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>200</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>60</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>180</v>

--- a/po_analysis_by_asin/B0D2JDP1VK_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2JDP1VK_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -679,6 +680,425 @@
       </c>
       <c r="B7" t="n">
         <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.341637082111493</v>
+      </c>
+      <c r="D2" t="n">
+        <v>135.4841267117727</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.8304351850193069</v>
+      </c>
+      <c r="D3" t="n">
+        <v>132.4019540677261</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-15.00133043856562</v>
+      </c>
+      <c r="D4" t="n">
+        <v>127.3094742931088</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.510996746614118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>134.4728684420786</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-17.63348903371085</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128.6517333763463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-12.58900209341426</v>
+      </c>
+      <c r="D7" t="n">
+        <v>137.4240672501215</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.672657188729431</v>
+      </c>
+      <c r="D8" t="n">
+        <v>137.2905032670542</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>63</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.79626079137827</v>
+      </c>
+      <c r="D9" t="n">
+        <v>139.7842170726684</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>63</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-8.685313729763386</v>
+      </c>
+      <c r="D10" t="n">
+        <v>135.3683407176881</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>63</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.790896721986409</v>
+      </c>
+      <c r="D11" t="n">
+        <v>139.6006346702594</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-12.44435532869558</v>
+      </c>
+      <c r="D12" t="n">
+        <v>139.6391033018615</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>63</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-6.729412347371183</v>
+      </c>
+      <c r="D13" t="n">
+        <v>137.8360860151657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-6.825246378833727</v>
+      </c>
+      <c r="D14" t="n">
+        <v>133.9884401189239</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-8.359587563616961</v>
+      </c>
+      <c r="D15" t="n">
+        <v>132.493989553559</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.918994873437521</v>
+      </c>
+      <c r="D16" t="n">
+        <v>139.8139987782872</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.056710353310593</v>
+      </c>
+      <c r="D17" t="n">
+        <v>133.4457399466068</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>64</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-14.89571647194829</v>
+      </c>
+      <c r="D18" t="n">
+        <v>138.8290323152997</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>64</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-9.808263629709598</v>
+      </c>
+      <c r="D19" t="n">
+        <v>132.687095306663</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>64</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-5.035023971857426</v>
+      </c>
+      <c r="D20" t="n">
+        <v>138.5785588108151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.52576268175773</v>
+      </c>
+      <c r="D21" t="n">
+        <v>133.832210453073</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>65</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.097794756980619</v>
+      </c>
+      <c r="D22" t="n">
+        <v>132.3042869642064</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>65</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-9.990523638419873</v>
+      </c>
+      <c r="D23" t="n">
+        <v>129.5946483890869</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>65</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.103859114664812</v>
+      </c>
+      <c r="D24" t="n">
+        <v>139.5449085667339</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.495082545260319</v>
+      </c>
+      <c r="D25" t="n">
+        <v>134.4833189082588</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>65</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.697886615359137</v>
+      </c>
+      <c r="D26" t="n">
+        <v>135.871284730655</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>65</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.414728552328013</v>
+      </c>
+      <c r="D27" t="n">
+        <v>135.0654038454653</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>65</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.621338799852109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>137.4681044102001</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D2JDP1VK_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2JDP1VK_po_data.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,16 +712,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -730,12 +720,6 @@
       <c r="B2" t="n">
         <v>62</v>
       </c>
-      <c r="C2" t="n">
-        <v>-8.341637082111493</v>
-      </c>
-      <c r="D2" t="n">
-        <v>135.4841267117727</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -744,12 +728,6 @@
       <c r="B3" t="n">
         <v>62</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.8304351850193069</v>
-      </c>
-      <c r="D3" t="n">
-        <v>132.4019540677261</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -758,12 +736,6 @@
       <c r="B4" t="n">
         <v>62</v>
       </c>
-      <c r="C4" t="n">
-        <v>-15.00133043856562</v>
-      </c>
-      <c r="D4" t="n">
-        <v>127.3094742931088</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -772,12 +744,6 @@
       <c r="B5" t="n">
         <v>62</v>
       </c>
-      <c r="C5" t="n">
-        <v>-6.510996746614118</v>
-      </c>
-      <c r="D5" t="n">
-        <v>134.4728684420786</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -786,12 +752,6 @@
       <c r="B6" t="n">
         <v>62</v>
       </c>
-      <c r="C6" t="n">
-        <v>-17.63348903371085</v>
-      </c>
-      <c r="D6" t="n">
-        <v>128.6517333763463</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -800,12 +760,6 @@
       <c r="B7" t="n">
         <v>63</v>
       </c>
-      <c r="C7" t="n">
-        <v>-12.58900209341426</v>
-      </c>
-      <c r="D7" t="n">
-        <v>137.4240672501215</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -814,12 +768,6 @@
       <c r="B8" t="n">
         <v>63</v>
       </c>
-      <c r="C8" t="n">
-        <v>-5.672657188729431</v>
-      </c>
-      <c r="D8" t="n">
-        <v>137.2905032670542</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -828,12 +776,6 @@
       <c r="B9" t="n">
         <v>63</v>
       </c>
-      <c r="C9" t="n">
-        <v>-12.79626079137827</v>
-      </c>
-      <c r="D9" t="n">
-        <v>139.7842170726684</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -842,12 +784,6 @@
       <c r="B10" t="n">
         <v>63</v>
       </c>
-      <c r="C10" t="n">
-        <v>-8.685313729763386</v>
-      </c>
-      <c r="D10" t="n">
-        <v>135.3683407176881</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -856,12 +792,6 @@
       <c r="B11" t="n">
         <v>63</v>
       </c>
-      <c r="C11" t="n">
-        <v>-6.790896721986409</v>
-      </c>
-      <c r="D11" t="n">
-        <v>139.6006346702594</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -870,12 +800,6 @@
       <c r="B12" t="n">
         <v>63</v>
       </c>
-      <c r="C12" t="n">
-        <v>-12.44435532869558</v>
-      </c>
-      <c r="D12" t="n">
-        <v>139.6391033018615</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -884,12 +808,6 @@
       <c r="B13" t="n">
         <v>63</v>
       </c>
-      <c r="C13" t="n">
-        <v>-6.729412347371183</v>
-      </c>
-      <c r="D13" t="n">
-        <v>137.8360860151657</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -898,12 +816,6 @@
       <c r="B14" t="n">
         <v>64</v>
       </c>
-      <c r="C14" t="n">
-        <v>-6.825246378833727</v>
-      </c>
-      <c r="D14" t="n">
-        <v>133.9884401189239</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -912,12 +824,6 @@
       <c r="B15" t="n">
         <v>64</v>
       </c>
-      <c r="C15" t="n">
-        <v>-8.359587563616961</v>
-      </c>
-      <c r="D15" t="n">
-        <v>132.493989553559</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -926,12 +832,6 @@
       <c r="B16" t="n">
         <v>64</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.918994873437521</v>
-      </c>
-      <c r="D16" t="n">
-        <v>139.8139987782872</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -940,12 +840,6 @@
       <c r="B17" t="n">
         <v>64</v>
       </c>
-      <c r="C17" t="n">
-        <v>-7.056710353310593</v>
-      </c>
-      <c r="D17" t="n">
-        <v>133.4457399466068</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -954,12 +848,6 @@
       <c r="B18" t="n">
         <v>64</v>
       </c>
-      <c r="C18" t="n">
-        <v>-14.89571647194829</v>
-      </c>
-      <c r="D18" t="n">
-        <v>138.8290323152997</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -968,12 +856,6 @@
       <c r="B19" t="n">
         <v>64</v>
       </c>
-      <c r="C19" t="n">
-        <v>-9.808263629709598</v>
-      </c>
-      <c r="D19" t="n">
-        <v>132.687095306663</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -982,12 +864,6 @@
       <c r="B20" t="n">
         <v>64</v>
       </c>
-      <c r="C20" t="n">
-        <v>-5.035023971857426</v>
-      </c>
-      <c r="D20" t="n">
-        <v>138.5785588108151</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -996,12 +872,6 @@
       <c r="B21" t="n">
         <v>65</v>
       </c>
-      <c r="C21" t="n">
-        <v>-3.52576268175773</v>
-      </c>
-      <c r="D21" t="n">
-        <v>133.832210453073</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1010,12 +880,6 @@
       <c r="B22" t="n">
         <v>65</v>
       </c>
-      <c r="C22" t="n">
-        <v>-4.097794756980619</v>
-      </c>
-      <c r="D22" t="n">
-        <v>132.3042869642064</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1024,12 +888,6 @@
       <c r="B23" t="n">
         <v>65</v>
       </c>
-      <c r="C23" t="n">
-        <v>-9.990523638419873</v>
-      </c>
-      <c r="D23" t="n">
-        <v>129.5946483890869</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1038,12 +896,6 @@
       <c r="B24" t="n">
         <v>65</v>
       </c>
-      <c r="C24" t="n">
-        <v>-6.103859114664812</v>
-      </c>
-      <c r="D24" t="n">
-        <v>139.5449085667339</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1052,12 +904,6 @@
       <c r="B25" t="n">
         <v>65</v>
       </c>
-      <c r="C25" t="n">
-        <v>-2.495082545260319</v>
-      </c>
-      <c r="D25" t="n">
-        <v>134.4833189082588</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1066,12 +912,6 @@
       <c r="B26" t="n">
         <v>65</v>
       </c>
-      <c r="C26" t="n">
-        <v>-5.697886615359137</v>
-      </c>
-      <c r="D26" t="n">
-        <v>135.871284730655</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1080,12 +920,6 @@
       <c r="B27" t="n">
         <v>65</v>
       </c>
-      <c r="C27" t="n">
-        <v>-3.414728552328013</v>
-      </c>
-      <c r="D27" t="n">
-        <v>135.0654038454653</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1093,12 +927,6 @@
       </c>
       <c r="B28" t="n">
         <v>65</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.621338799852109</v>
-      </c>
-      <c r="D28" t="n">
-        <v>137.4681044102001</v>
       </c>
     </row>
   </sheetData>
